--- a/artfynd/A 3958-2024 artfynd.xlsx
+++ b/artfynd/A 3958-2024 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130979888</v>
+        <v>130979945</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>590692</v>
+        <v>590594</v>
       </c>
       <c r="R2" t="n">
-        <v>6963278</v>
+        <v>6963385</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130979927</v>
+        <v>130979888</v>
       </c>
       <c r="B3" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>590832</v>
+        <v>590692</v>
       </c>
       <c r="R3" t="n">
-        <v>6963235</v>
+        <v>6963278</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130979945</v>
+        <v>130979927</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>590594</v>
+        <v>590832</v>
       </c>
       <c r="R4" t="n">
-        <v>6963385</v>
+        <v>6963235</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1040,10 +1040,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130979891</v>
+        <v>130979933</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>590710</v>
+        <v>590658</v>
       </c>
       <c r="R5" t="n">
-        <v>6963217</v>
+        <v>6963312</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1160,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130979933</v>
+        <v>130979891</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1203,10 +1203,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>590658</v>
+        <v>590710</v>
       </c>
       <c r="R6" t="n">
-        <v>6963312</v>
+        <v>6963217</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1283,7 +1283,7 @@
         <v>130979887</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130979935</v>
+        <v>130979926</v>
       </c>
       <c r="B8" t="n">
-        <v>91824</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1411,19 +1411,23 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1431,10 +1435,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>590645</v>
+        <v>590852</v>
       </c>
       <c r="R8" t="n">
-        <v>6963341</v>
+        <v>6963248</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1466,7 +1470,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1476,7 +1480,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1503,10 +1507,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130979926</v>
+        <v>130979935</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>91828</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1514,23 +1518,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>590852</v>
+        <v>590645</v>
       </c>
       <c r="R9" t="n">
-        <v>6963248</v>
+        <v>6963341</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1613,7 +1613,7 @@
         <v>130979924</v>
       </c>
       <c r="B10" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130979934</v>
+        <v>130979928</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>590655</v>
+        <v>590813</v>
       </c>
       <c r="R11" t="n">
-        <v>6963332</v>
+        <v>6963212</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>äldre ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1840,7 +1840,7 @@
         <v>130979937</v>
       </c>
       <c r="B12" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130979928</v>
+        <v>130979934</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2000,10 +2000,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>590813</v>
+        <v>590655</v>
       </c>
       <c r="R13" t="n">
-        <v>6963212</v>
+        <v>6963332</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2077,10 +2077,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130979929</v>
+        <v>130979889</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>590797</v>
+        <v>590701</v>
       </c>
       <c r="R14" t="n">
-        <v>6963219</v>
+        <v>6963240</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska och äldre ringhack på gran</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2197,10 +2197,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130979889</v>
+        <v>130979929</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2240,10 +2240,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>590701</v>
+        <v>590797</v>
       </c>
       <c r="R15" t="n">
-        <v>6963240</v>
+        <v>6963219</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>färska och äldre ringhack på gran</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2317,10 +2317,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130979895</v>
+        <v>130979948</v>
       </c>
       <c r="B16" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2360,10 +2360,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>590687</v>
+        <v>590579</v>
       </c>
       <c r="R16" t="n">
-        <v>6963193</v>
+        <v>6963330</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2437,10 +2437,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130979948</v>
+        <v>130979895</v>
       </c>
       <c r="B17" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2480,10 +2480,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>590579</v>
+        <v>590687</v>
       </c>
       <c r="R17" t="n">
-        <v>6963330</v>
+        <v>6963193</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2557,10 +2557,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130979897</v>
+        <v>130979947</v>
       </c>
       <c r="B18" t="n">
-        <v>80344</v>
+        <v>91808</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2568,21 +2568,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590726</v>
+        <v>590591</v>
       </c>
       <c r="R18" t="n">
-        <v>6963153</v>
+        <v>6963354</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2664,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130979947</v>
+        <v>130979946</v>
       </c>
       <c r="B19" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2675,34 +2675,42 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590591</v>
+        <v>590605</v>
       </c>
       <c r="R19" t="n">
-        <v>6963354</v>
+        <v>6963364</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2734,7 +2742,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2744,7 +2752,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2774,7 +2787,7 @@
         <v>130979899</v>
       </c>
       <c r="B20" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2891,10 +2904,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130979946</v>
+        <v>130979897</v>
       </c>
       <c r="B21" t="n">
-        <v>57880</v>
+        <v>80348</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2902,42 +2915,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590605</v>
+        <v>590726</v>
       </c>
       <c r="R21" t="n">
-        <v>6963364</v>
+        <v>6963153</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2969,7 +2974,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2979,12 +2984,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3014,7 +3014,7 @@
         <v>130979931</v>
       </c>
       <c r="B22" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130979944</v>
+        <v>130979923</v>
       </c>
       <c r="B23" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3174,10 +3174,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>590599</v>
+        <v>590913</v>
       </c>
       <c r="R23" t="n">
-        <v>6963388</v>
+        <v>6963246</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3251,10 +3251,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130979923</v>
+        <v>130979944</v>
       </c>
       <c r="B24" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3294,10 +3294,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>590913</v>
+        <v>590599</v>
       </c>
       <c r="R24" t="n">
-        <v>6963246</v>
+        <v>6963388</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -3371,10 +3371,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130979890</v>
+        <v>130979925</v>
       </c>
       <c r="B25" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>590704</v>
+        <v>590855</v>
       </c>
       <c r="R25" t="n">
-        <v>6963217</v>
+        <v>6963228</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3491,10 +3491,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130979900</v>
+        <v>130979890</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>590843</v>
+        <v>590704</v>
       </c>
       <c r="R26" t="n">
-        <v>6963130</v>
+        <v>6963217</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -3611,10 +3611,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130979925</v>
+        <v>130979900</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3654,10 +3654,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>590855</v>
+        <v>590843</v>
       </c>
       <c r="R27" t="n">
-        <v>6963228</v>
+        <v>6963130</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3699,12 +3699,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3734,7 +3734,7 @@
         <v>130979894</v>
       </c>
       <c r="B28" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>130979936</v>
       </c>
       <c r="B29" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3971,10 +3971,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979930</v>
+        <v>130979932</v>
       </c>
       <c r="B30" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590789</v>
+        <v>590660</v>
       </c>
       <c r="R30" t="n">
-        <v>6963216</v>
+        <v>6963313</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>äldre ringhack på tall</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4091,10 +4091,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130979932</v>
+        <v>130979930</v>
       </c>
       <c r="B31" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590660</v>
+        <v>590789</v>
       </c>
       <c r="R31" t="n">
-        <v>6963313</v>
+        <v>6963216</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4211,10 +4211,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130979898</v>
+        <v>130979941</v>
       </c>
       <c r="B32" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4222,42 +4222,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590830</v>
+        <v>590615</v>
       </c>
       <c r="R32" t="n">
-        <v>6963134</v>
+        <v>6963396</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4289,7 +4281,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4299,12 +4291,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:17</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4331,10 +4318,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130979943</v>
+        <v>130979893</v>
       </c>
       <c r="B33" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4374,10 +4361,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590608</v>
+        <v>590717</v>
       </c>
       <c r="R33" t="n">
-        <v>6963380</v>
+        <v>6963211</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4409,7 +4396,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4419,7 +4406,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -4451,10 +4438,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130979893</v>
+        <v>130979943</v>
       </c>
       <c r="B34" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4494,10 +4481,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>590717</v>
+        <v>590608</v>
       </c>
       <c r="R34" t="n">
-        <v>6963211</v>
+        <v>6963380</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4529,7 +4516,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4539,7 +4526,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -4571,10 +4558,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130979941</v>
+        <v>130979898</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4582,34 +4569,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>590615</v>
+        <v>590830</v>
       </c>
       <c r="R35" t="n">
-        <v>6963396</v>
+        <v>6963134</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4641,7 +4636,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4651,7 +4646,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 3958-2024 artfynd.xlsx
+++ b/artfynd/A 3958-2024 artfynd.xlsx
@@ -2557,10 +2557,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130979947</v>
+        <v>130979946</v>
       </c>
       <c r="B18" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2568,34 +2568,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590591</v>
+        <v>590605</v>
       </c>
       <c r="R18" t="n">
-        <v>6963354</v>
+        <v>6963364</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2627,7 +2635,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2637,7 +2645,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2664,7 +2677,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130979946</v>
+        <v>130979899</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2707,10 +2720,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590605</v>
+        <v>590850</v>
       </c>
       <c r="R19" t="n">
-        <v>6963364</v>
+        <v>6963133</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2742,7 +2755,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2752,7 +2765,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -2784,10 +2797,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130979899</v>
+        <v>130979897</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2795,42 +2808,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>590850</v>
+        <v>590726</v>
       </c>
       <c r="R20" t="n">
-        <v>6963133</v>
+        <v>6963153</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2862,7 +2867,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2872,12 +2877,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:16</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2904,10 +2904,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130979897</v>
+        <v>130979947</v>
       </c>
       <c r="B21" t="n">
-        <v>80348</v>
+        <v>91808</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2915,21 +2915,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590726</v>
+        <v>590591</v>
       </c>
       <c r="R21" t="n">
-        <v>6963153</v>
+        <v>6963354</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 3958-2024 artfynd.xlsx
+++ b/artfynd/A 3958-2024 artfynd.xlsx
@@ -2557,10 +2557,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130979946</v>
+        <v>130979947</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2568,42 +2568,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590605</v>
+        <v>590591</v>
       </c>
       <c r="R18" t="n">
-        <v>6963364</v>
+        <v>6963354</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2635,7 +2627,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2645,12 +2637,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2677,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130979899</v>
+        <v>130979897</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2688,42 +2675,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590850</v>
+        <v>590726</v>
       </c>
       <c r="R19" t="n">
-        <v>6963133</v>
+        <v>6963153</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2755,7 +2734,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2765,12 +2744,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:16</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2797,10 +2771,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130979897</v>
+        <v>130979946</v>
       </c>
       <c r="B20" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2808,34 +2782,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>590726</v>
+        <v>590605</v>
       </c>
       <c r="R20" t="n">
-        <v>6963153</v>
+        <v>6963364</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2867,7 +2849,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2877,7 +2859,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:47</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2904,10 +2891,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130979947</v>
+        <v>130979899</v>
       </c>
       <c r="B21" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2915,34 +2902,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590591</v>
+        <v>590850</v>
       </c>
       <c r="R21" t="n">
-        <v>6963354</v>
+        <v>6963133</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2974,7 +2969,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2984,7 +2979,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 3958-2024 artfynd.xlsx
+++ b/artfynd/A 3958-2024 artfynd.xlsx
@@ -2557,10 +2557,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130979947</v>
+        <v>130979946</v>
       </c>
       <c r="B18" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2568,34 +2568,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590591</v>
+        <v>590605</v>
       </c>
       <c r="R18" t="n">
-        <v>6963354</v>
+        <v>6963364</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2627,7 +2635,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2637,7 +2645,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2664,10 +2677,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130979897</v>
+        <v>130979899</v>
       </c>
       <c r="B19" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2675,34 +2688,42 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590726</v>
+        <v>590850</v>
       </c>
       <c r="R19" t="n">
-        <v>6963153</v>
+        <v>6963133</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2734,7 +2755,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2744,7 +2765,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2771,10 +2797,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130979946</v>
+        <v>130979947</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2782,42 +2808,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>590605</v>
+        <v>590591</v>
       </c>
       <c r="R20" t="n">
-        <v>6963364</v>
+        <v>6963354</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2849,7 +2867,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2859,12 +2877,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2891,10 +2904,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130979899</v>
+        <v>130979897</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2902,42 +2915,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590850</v>
+        <v>590726</v>
       </c>
       <c r="R21" t="n">
-        <v>6963133</v>
+        <v>6963153</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2969,7 +2974,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2979,12 +2984,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:16</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 3958-2024 artfynd.xlsx
+++ b/artfynd/A 3958-2024 artfynd.xlsx
@@ -1400,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130979926</v>
+        <v>130979935</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1411,23 +1411,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1435,10 +1431,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>590852</v>
+        <v>590645</v>
       </c>
       <c r="R8" t="n">
-        <v>6963248</v>
+        <v>6963341</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1470,7 +1466,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1480,7 +1476,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1507,10 +1503,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130979935</v>
+        <v>130979926</v>
       </c>
       <c r="B9" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1518,19 +1514,23 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>590645</v>
+        <v>590852</v>
       </c>
       <c r="R9" t="n">
-        <v>6963341</v>
+        <v>6963248</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -2557,10 +2557,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130979946</v>
+        <v>130979897</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2568,42 +2568,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590605</v>
+        <v>590726</v>
       </c>
       <c r="R18" t="n">
-        <v>6963364</v>
+        <v>6963153</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2635,7 +2627,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2645,12 +2637,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2677,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130979899</v>
+        <v>130979947</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2688,42 +2675,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590850</v>
+        <v>590591</v>
       </c>
       <c r="R19" t="n">
-        <v>6963133</v>
+        <v>6963354</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2755,7 +2734,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2765,12 +2744,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:16</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2797,10 +2771,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130979947</v>
+        <v>130979946</v>
       </c>
       <c r="B20" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2808,34 +2782,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>590591</v>
+        <v>590605</v>
       </c>
       <c r="R20" t="n">
-        <v>6963354</v>
+        <v>6963364</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2867,7 +2849,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2877,7 +2859,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2904,10 +2891,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130979897</v>
+        <v>130979899</v>
       </c>
       <c r="B21" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2915,34 +2902,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590726</v>
+        <v>590850</v>
       </c>
       <c r="R21" t="n">
-        <v>6963153</v>
+        <v>6963133</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2974,7 +2969,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2984,7 +2979,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 3958-2024 artfynd.xlsx
+++ b/artfynd/A 3958-2024 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130979945</v>
+        <v>130979888</v>
       </c>
       <c r="B2" t="n">
         <v>57884</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>590594</v>
+        <v>590692</v>
       </c>
       <c r="R2" t="n">
-        <v>6963385</v>
+        <v>6963278</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -800,7 +800,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130979888</v>
+        <v>130979927</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>590692</v>
+        <v>590832</v>
       </c>
       <c r="R3" t="n">
-        <v>6963278</v>
+        <v>6963235</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130979927</v>
+        <v>130979945</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>590832</v>
+        <v>590594</v>
       </c>
       <c r="R4" t="n">
-        <v>6963235</v>
+        <v>6963385</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1040,7 +1040,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130979933</v>
+        <v>130979891</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>590658</v>
+        <v>590710</v>
       </c>
       <c r="R5" t="n">
-        <v>6963312</v>
+        <v>6963217</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1160,7 +1160,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130979891</v>
+        <v>130979933</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1203,10 +1203,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>590710</v>
+        <v>590658</v>
       </c>
       <c r="R6" t="n">
-        <v>6963217</v>
+        <v>6963312</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1717,7 +1717,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130979928</v>
+        <v>130979934</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1750,7 +1750,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>590813</v>
+        <v>590655</v>
       </c>
       <c r="R11" t="n">
-        <v>6963212</v>
+        <v>6963332</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1957,7 +1957,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130979934</v>
+        <v>130979928</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1990,7 +1990,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2000,10 +2000,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>590655</v>
+        <v>590813</v>
       </c>
       <c r="R13" t="n">
-        <v>6963332</v>
+        <v>6963212</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>äldre ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2077,7 +2077,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130979889</v>
+        <v>130979929</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>590701</v>
+        <v>590797</v>
       </c>
       <c r="R14" t="n">
-        <v>6963240</v>
+        <v>6963219</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>färska och äldre ringhack på gran</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2197,7 +2197,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130979929</v>
+        <v>130979889</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2240,10 +2240,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>590797</v>
+        <v>590701</v>
       </c>
       <c r="R15" t="n">
-        <v>6963219</v>
+        <v>6963240</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska och äldre ringhack på gran</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2317,7 +2317,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130979948</v>
+        <v>130979895</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2360,10 +2360,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>590579</v>
+        <v>590687</v>
       </c>
       <c r="R16" t="n">
-        <v>6963330</v>
+        <v>6963193</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2437,7 +2437,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130979895</v>
+        <v>130979948</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2480,10 +2480,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>590687</v>
+        <v>590579</v>
       </c>
       <c r="R17" t="n">
-        <v>6963193</v>
+        <v>6963330</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2557,10 +2557,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130979897</v>
+        <v>130979947</v>
       </c>
       <c r="B18" t="n">
-        <v>80348</v>
+        <v>91808</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2568,21 +2568,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590726</v>
+        <v>590591</v>
       </c>
       <c r="R18" t="n">
-        <v>6963153</v>
+        <v>6963354</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2664,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130979947</v>
+        <v>130979899</v>
       </c>
       <c r="B19" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2675,34 +2675,42 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590591</v>
+        <v>590850</v>
       </c>
       <c r="R19" t="n">
-        <v>6963354</v>
+        <v>6963133</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2734,7 +2742,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2744,7 +2752,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2891,10 +2904,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130979899</v>
+        <v>130979897</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2902,42 +2915,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590850</v>
+        <v>590726</v>
       </c>
       <c r="R21" t="n">
-        <v>6963133</v>
+        <v>6963153</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2969,7 +2974,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2979,12 +2984,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:16</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3131,7 +3131,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130979923</v>
+        <v>130979944</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -3174,10 +3174,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>590913</v>
+        <v>590599</v>
       </c>
       <c r="R23" t="n">
-        <v>6963246</v>
+        <v>6963388</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3251,7 +3251,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130979944</v>
+        <v>130979923</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -3294,10 +3294,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>590599</v>
+        <v>590913</v>
       </c>
       <c r="R24" t="n">
-        <v>6963388</v>
+        <v>6963246</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -3371,7 +3371,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130979925</v>
+        <v>130979890</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>590855</v>
+        <v>590704</v>
       </c>
       <c r="R25" t="n">
-        <v>6963228</v>
+        <v>6963217</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3491,7 +3491,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130979890</v>
+        <v>130979900</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>590704</v>
+        <v>590843</v>
       </c>
       <c r="R26" t="n">
-        <v>6963217</v>
+        <v>6963130</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -3611,7 +3611,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130979900</v>
+        <v>130979925</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3654,10 +3654,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>590843</v>
+        <v>590855</v>
       </c>
       <c r="R27" t="n">
-        <v>6963130</v>
+        <v>6963228</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3699,12 +3699,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3971,7 +3971,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979932</v>
+        <v>130979930</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4004,7 +4004,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590660</v>
+        <v>590789</v>
       </c>
       <c r="R30" t="n">
-        <v>6963313</v>
+        <v>6963216</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4091,7 +4091,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130979930</v>
+        <v>130979932</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4124,7 +4124,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590789</v>
+        <v>590660</v>
       </c>
       <c r="R31" t="n">
-        <v>6963216</v>
+        <v>6963313</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>äldre ringhack på tall</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4211,10 +4211,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130979941</v>
+        <v>130979898</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4222,34 +4222,42 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590615</v>
+        <v>590830</v>
       </c>
       <c r="R32" t="n">
-        <v>6963396</v>
+        <v>6963134</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4281,7 +4289,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4291,7 +4299,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4318,7 +4331,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130979893</v>
+        <v>130979943</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4361,10 +4374,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590717</v>
+        <v>590608</v>
       </c>
       <c r="R33" t="n">
-        <v>6963211</v>
+        <v>6963380</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4396,7 +4409,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4406,7 +4419,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -4438,7 +4451,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130979943</v>
+        <v>130979893</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4481,10 +4494,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>590608</v>
+        <v>590717</v>
       </c>
       <c r="R34" t="n">
-        <v>6963380</v>
+        <v>6963211</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4516,7 +4529,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4526,7 +4539,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -4558,10 +4571,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130979898</v>
+        <v>130979941</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4569,42 +4582,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>590830</v>
+        <v>590615</v>
       </c>
       <c r="R35" t="n">
-        <v>6963134</v>
+        <v>6963396</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4636,7 +4641,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4646,12 +4651,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:17</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD35" t="b">
